--- a/src/templates/PMSurvived_Template.xlsx
+++ b/src/templates/PMSurvived_Template.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\GitHub\TAD-Reports-BE\src\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC4FE1D-F005-461D-8595-252647665173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EFCC6411-65C2-48CE-A6E3-BB7C2F8CE2FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-103" yWindow="-103" windowWidth="33120" windowHeight="18000" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -196,7 +196,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -230,69 +230,72 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="20">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="2" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="12" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="12" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="12" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="12" fontId="4" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="12" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="12" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="12" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="12" fontId="4" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="12" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="12" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="12" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="4" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="7" fillId="4" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="12" fontId="5" fillId="3" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -522,143 +525,143 @@
   <dimension ref="A1:N43"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J24" sqref="J24"/>
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.53515625" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="15" style="12" customWidth="1"/>
-    <col min="2" max="2" width="24" style="12" customWidth="1"/>
-    <col min="3" max="3" width="27.15234375" style="12" customWidth="1"/>
-    <col min="4" max="7" width="20" style="12" customWidth="1"/>
-    <col min="8" max="8" width="14.921875" style="12" customWidth="1"/>
-    <col min="9" max="9" width="34.921875" style="12" customWidth="1"/>
-    <col min="10" max="10" width="15" style="12" customWidth="1"/>
-    <col min="11" max="11" width="20" style="12" customWidth="1"/>
-    <col min="12" max="12" width="20.61328125" style="12" customWidth="1"/>
-    <col min="13" max="13" width="22.07421875" style="12" customWidth="1"/>
-    <col min="14" max="14" width="30" style="12" customWidth="1"/>
-    <col min="15" max="16384" width="12.53515625" style="12"/>
+    <col min="1" max="1" width="15" style="2" customWidth="1"/>
+    <col min="2" max="2" width="24" style="2" customWidth="1"/>
+    <col min="3" max="3" width="27.15234375" style="2" customWidth="1"/>
+    <col min="4" max="7" width="20" style="2" customWidth="1"/>
+    <col min="8" max="8" width="14.921875" style="2" customWidth="1"/>
+    <col min="9" max="9" width="34.921875" style="2" customWidth="1"/>
+    <col min="10" max="10" width="15" style="2" customWidth="1"/>
+    <col min="11" max="11" width="20" style="2" customWidth="1"/>
+    <col min="12" max="12" width="20.61328125" style="2" customWidth="1"/>
+    <col min="13" max="13" width="22.07421875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="30" style="2" customWidth="1"/>
+    <col min="15" max="16384" width="12.53515625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="11"/>
-      <c r="B1" s="11"/>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="6" t="s">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="12" t="s">
         <v>10</v>
       </c>
-      <c r="F1" s="6"/>
-      <c r="G1" s="6"/>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
-      <c r="K1" s="6"/>
-      <c r="L1" s="6"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
+      <c r="K1" s="12"/>
+      <c r="L1" s="12"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
     </row>
     <row r="2" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11"/>
-      <c r="C2" s="11"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="6" t="s">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+      <c r="D2" s="1"/>
+      <c r="E2" s="12" t="s">
         <v>8</v>
       </c>
-      <c r="F2" s="6"/>
-      <c r="G2" s="6"/>
-      <c r="H2" s="6"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="6"/>
-      <c r="K2" s="6"/>
-      <c r="L2" s="6"/>
-      <c r="M2" s="11"/>
-      <c r="N2" s="11"/>
+      <c r="F2" s="12"/>
+      <c r="G2" s="12"/>
+      <c r="H2" s="12"/>
+      <c r="I2" s="12"/>
+      <c r="J2" s="12"/>
+      <c r="K2" s="12"/>
+      <c r="L2" s="12"/>
+      <c r="M2" s="1"/>
+      <c r="N2" s="1"/>
     </row>
     <row r="3" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="6" t="s">
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+      <c r="D3" s="1"/>
+      <c r="E3" s="12" t="s">
         <v>9</v>
       </c>
-      <c r="F3" s="6"/>
-      <c r="G3" s="6"/>
-      <c r="H3" s="6"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="6"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="11"/>
-      <c r="N3" s="11"/>
+      <c r="F3" s="12"/>
+      <c r="G3" s="12"/>
+      <c r="H3" s="12"/>
+      <c r="I3" s="12"/>
+      <c r="J3" s="12"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="1"/>
+      <c r="N3" s="1"/>
     </row>
     <row r="4" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
       <c r="A4" s="13" t="s">
         <v>24</v>
       </c>
-      <c r="B4" s="11"/>
-      <c r="C4" s="11"/>
-      <c r="D4" s="11"/>
-      <c r="E4" s="6"/>
-      <c r="F4" s="6"/>
-      <c r="G4" s="6"/>
-      <c r="H4" s="6"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="6"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="11"/>
-      <c r="N4" s="11"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="1"/>
+      <c r="D4" s="1"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="12"/>
+      <c r="I4" s="12"/>
+      <c r="J4" s="12"/>
+      <c r="K4" s="12"/>
+      <c r="L4" s="12"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
     </row>
     <row r="5" spans="1:14" ht="37.200000000000003" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="C5" s="1" t="s">
+      <c r="C5" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="D5" s="1" t="s">
+      <c r="D5" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="E5" s="1" t="s">
+      <c r="E5" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="F5" s="1" t="s">
+      <c r="F5" s="11" t="s">
         <v>6</v>
       </c>
-      <c r="G5" s="1" t="s">
+      <c r="G5" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H5" s="1" t="s">
+      <c r="H5" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="1" t="s">
+      <c r="I5" s="11" t="s">
         <v>20</v>
       </c>
-      <c r="J5" s="1" t="s">
+      <c r="J5" s="11" t="s">
         <v>12</v>
       </c>
-      <c r="K5" s="1" t="s">
+      <c r="K5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="L5" s="1" t="s">
+      <c r="L5" s="11" t="s">
         <v>22</v>
       </c>
-      <c r="M5" s="1" t="s">
+      <c r="M5" s="11" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="1" t="s">
+      <c r="N5" s="11" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="6" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A6" s="2"/>
+      <c r="A6" s="3"/>
       <c r="B6" s="3"/>
       <c r="C6" s="3"/>
       <c r="D6" s="3"/>
@@ -666,57 +669,57 @@
       <c r="F6" s="3"/>
       <c r="G6" s="3"/>
       <c r="H6" s="3"/>
-      <c r="I6" s="14"/>
+      <c r="I6" s="3"/>
       <c r="J6" s="3"/>
       <c r="K6" s="4"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="15"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="5"/>
       <c r="N6" s="3"/>
     </row>
     <row r="7" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A7" s="7">
+      <c r="A7" s="6">
         <v>45060</v>
       </c>
-      <c r="B7" s="8" t="s">
+      <c r="B7" s="6" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="8" t="s">
+      <c r="C7" s="6" t="s">
         <v>18</v>
       </c>
-      <c r="D7" s="8" t="s">
+      <c r="D7" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="E7" s="8" t="s">
+      <c r="E7" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="8" t="s">
+      <c r="F7" s="6"/>
+      <c r="G7" s="6" t="s">
         <v>16</v>
       </c>
-      <c r="H7" s="8" t="s">
+      <c r="H7" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="I7" s="16">
+      <c r="I7" s="6">
         <v>2000</v>
       </c>
-      <c r="J7" s="8" t="s">
+      <c r="J7" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="K7" s="9">
+      <c r="K7" s="7">
         <v>44516</v>
       </c>
-      <c r="L7" s="10">
+      <c r="L7" s="7">
         <v>2000</v>
       </c>
-      <c r="M7" s="17">
+      <c r="M7" s="8">
         <v>1000</v>
       </c>
-      <c r="N7" s="8" t="s">
+      <c r="N7" s="6" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A8" s="2"/>
+      <c r="A8" s="3"/>
       <c r="B8" s="3"/>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
@@ -724,15 +727,15 @@
       <c r="F8" s="3"/>
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
-      <c r="I8" s="14"/>
+      <c r="I8" s="3"/>
       <c r="J8" s="3"/>
       <c r="K8" s="4"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="15"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="5"/>
       <c r="N8" s="3"/>
     </row>
     <row r="9" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A9" s="2"/>
+      <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
@@ -740,15 +743,15 @@
       <c r="F9" s="3"/>
       <c r="G9" s="3"/>
       <c r="H9" s="3"/>
-      <c r="I9" s="14"/>
+      <c r="I9" s="3"/>
       <c r="J9" s="3"/>
       <c r="K9" s="4"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="18"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="9"/>
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A10" s="2"/>
+      <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
@@ -756,15 +759,15 @@
       <c r="F10" s="3"/>
       <c r="G10" s="3"/>
       <c r="H10" s="3"/>
-      <c r="I10" s="14"/>
+      <c r="I10" s="3"/>
       <c r="J10" s="3"/>
       <c r="K10" s="4"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="15"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="5"/>
       <c r="N10" s="3"/>
     </row>
     <row r="11" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A11" s="2"/>
+      <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
@@ -772,15 +775,15 @@
       <c r="F11" s="3"/>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
-      <c r="I11" s="14"/>
+      <c r="I11" s="3"/>
       <c r="J11" s="3"/>
       <c r="K11" s="4"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="15"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="5"/>
       <c r="N11" s="3"/>
     </row>
     <row r="12" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A12" s="2"/>
+      <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
@@ -788,15 +791,15 @@
       <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
-      <c r="I12" s="14"/>
+      <c r="I12" s="3"/>
       <c r="J12" s="3"/>
       <c r="K12" s="4"/>
-      <c r="L12" s="5"/>
-      <c r="M12" s="15"/>
+      <c r="L12" s="4"/>
+      <c r="M12" s="5"/>
       <c r="N12" s="3"/>
     </row>
     <row r="13" spans="1:14" ht="14.6" x14ac:dyDescent="0.4">
-      <c r="A13" s="2"/>
+      <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
@@ -804,15 +807,15 @@
       <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="14"/>
+      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="4"/>
-      <c r="L13" s="5"/>
-      <c r="M13" s="15"/>
+      <c r="L13" s="4"/>
+      <c r="M13" s="5"/>
       <c r="N13" s="3"/>
     </row>
     <row r="14" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="2"/>
+      <c r="A14" s="3"/>
       <c r="B14" s="3"/>
       <c r="C14" s="3"/>
       <c r="D14" s="3"/>
@@ -820,63 +823,63 @@
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="14"/>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="4"/>
-      <c r="L14" s="5"/>
-      <c r="M14" s="15"/>
+      <c r="L14" s="4"/>
+      <c r="M14" s="5"/>
       <c r="N14" s="3"/>
     </row>
     <row r="15" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="19"/>
-      <c r="B15" s="19"/>
-      <c r="C15" s="19"/>
-      <c r="D15" s="19"/>
-      <c r="E15" s="19"/>
-      <c r="F15" s="19"/>
-      <c r="G15" s="19"/>
-      <c r="H15" s="19"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="19"/>
+      <c r="A15" s="10"/>
+      <c r="B15" s="10"/>
+      <c r="C15" s="10"/>
+      <c r="D15" s="10"/>
+      <c r="E15" s="10"/>
+      <c r="F15" s="10"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="10"/>
+      <c r="I15" s="10"/>
+      <c r="J15" s="10"/>
       <c r="K15" s="4"/>
-      <c r="L15" s="5"/>
-      <c r="M15" s="15"/>
+      <c r="L15" s="4"/>
+      <c r="M15" s="5"/>
       <c r="N15" s="3"/>
     </row>
     <row r="16" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A16" s="19"/>
-      <c r="B16" s="19"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
-      <c r="G16" s="19"/>
-      <c r="H16" s="19"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="19"/>
+      <c r="A16" s="10"/>
+      <c r="B16" s="10"/>
+      <c r="C16" s="10"/>
+      <c r="D16" s="10"/>
+      <c r="E16" s="10"/>
+      <c r="F16" s="10"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="10"/>
+      <c r="I16" s="10"/>
+      <c r="J16" s="10"/>
       <c r="K16" s="4"/>
-      <c r="L16" s="5"/>
-      <c r="M16" s="15"/>
+      <c r="L16" s="4"/>
+      <c r="M16" s="5"/>
       <c r="N16" s="3"/>
     </row>
     <row r="17" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A17" s="19"/>
-      <c r="B17" s="19"/>
-      <c r="C17" s="19"/>
-      <c r="D17" s="19"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="19"/>
-      <c r="G17" s="19"/>
-      <c r="H17" s="19"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="19"/>
+      <c r="A17" s="10"/>
+      <c r="B17" s="10"/>
+      <c r="C17" s="10"/>
+      <c r="D17" s="10"/>
+      <c r="E17" s="10"/>
+      <c r="F17" s="10"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="10"/>
+      <c r="I17" s="10"/>
+      <c r="J17" s="10"/>
       <c r="K17" s="4"/>
-      <c r="L17" s="5"/>
-      <c r="M17" s="18"/>
+      <c r="L17" s="4"/>
+      <c r="M17" s="9"/>
       <c r="N17" s="3"/>
     </row>
     <row r="18" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A18" s="2"/>
+      <c r="A18" s="3"/>
       <c r="B18" s="3"/>
       <c r="C18" s="3"/>
       <c r="D18" s="3"/>
@@ -885,14 +888,14 @@
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
       <c r="I18" s="3"/>
-      <c r="J18" s="2"/>
+      <c r="J18" s="3"/>
       <c r="K18" s="4"/>
-      <c r="L18" s="5"/>
-      <c r="M18" s="15"/>
+      <c r="L18" s="4"/>
+      <c r="M18" s="5"/>
       <c r="N18" s="3"/>
     </row>
     <row r="19" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A19" s="2"/>
+      <c r="A19" s="3"/>
       <c r="B19" s="3"/>
       <c r="C19" s="3"/>
       <c r="D19" s="3"/>
@@ -901,10 +904,10 @@
       <c r="G19" s="3"/>
       <c r="H19" s="3"/>
       <c r="I19" s="3"/>
-      <c r="J19" s="2"/>
+      <c r="J19" s="3"/>
       <c r="K19" s="4"/>
-      <c r="L19" s="5"/>
-      <c r="M19" s="15"/>
+      <c r="L19" s="4"/>
+      <c r="M19" s="5"/>
       <c r="N19" s="3"/>
     </row>
     <row r="20" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
@@ -1004,7 +1007,7 @@
       <c r="N25" s="3"/>
     </row>
     <row r="26" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A26" s="2"/>
+      <c r="A26" s="3"/>
       <c r="B26" s="3"/>
       <c r="C26" s="3"/>
       <c r="D26" s="3"/>
@@ -1020,7 +1023,7 @@
       <c r="N26" s="3"/>
     </row>
     <row r="27" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A27" s="2"/>
+      <c r="A27" s="3"/>
       <c r="B27" s="3"/>
       <c r="C27" s="3"/>
       <c r="D27" s="3"/>
@@ -1036,7 +1039,7 @@
       <c r="N27" s="3"/>
     </row>
     <row r="28" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A28" s="2"/>
+      <c r="A28" s="3"/>
       <c r="B28" s="3"/>
       <c r="C28" s="3"/>
       <c r="D28" s="3"/>
@@ -1212,91 +1215,93 @@
       <c r="N38" s="3"/>
     </row>
     <row r="39" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A39" s="19"/>
-      <c r="B39" s="19"/>
-      <c r="C39" s="19"/>
-      <c r="D39" s="19"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="19"/>
-      <c r="K39" s="19"/>
-      <c r="L39" s="19"/>
-      <c r="M39" s="19"/>
-      <c r="N39" s="19"/>
+      <c r="A39" s="10"/>
+      <c r="B39" s="10"/>
+      <c r="C39" s="10"/>
+      <c r="D39" s="10"/>
+      <c r="E39" s="10"/>
+      <c r="F39" s="10"/>
+      <c r="G39" s="10"/>
+      <c r="H39" s="10"/>
+      <c r="I39" s="10"/>
+      <c r="J39" s="10"/>
+      <c r="K39" s="10"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="10"/>
+      <c r="N39" s="10"/>
     </row>
     <row r="40" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A40" s="19"/>
-      <c r="B40" s="19"/>
-      <c r="C40" s="19"/>
-      <c r="D40" s="19"/>
-      <c r="E40" s="19"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="19"/>
-      <c r="K40" s="19"/>
-      <c r="L40" s="19"/>
-      <c r="M40" s="19"/>
-      <c r="N40" s="19"/>
+      <c r="A40" s="10"/>
+      <c r="B40" s="10"/>
+      <c r="C40" s="10"/>
+      <c r="D40" s="10"/>
+      <c r="E40" s="10"/>
+      <c r="F40" s="10"/>
+      <c r="G40" s="10"/>
+      <c r="H40" s="10"/>
+      <c r="I40" s="10"/>
+      <c r="J40" s="10"/>
+      <c r="K40" s="10"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="10"/>
+      <c r="N40" s="10"/>
     </row>
     <row r="41" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A41" s="19"/>
-      <c r="B41" s="19"/>
-      <c r="C41" s="19"/>
-      <c r="D41" s="19"/>
-      <c r="E41" s="19"/>
-      <c r="F41" s="19"/>
-      <c r="G41" s="19"/>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="19"/>
-      <c r="K41" s="19"/>
-      <c r="L41" s="19"/>
-      <c r="M41" s="19"/>
-      <c r="N41" s="19"/>
+      <c r="A41" s="10"/>
+      <c r="B41" s="10"/>
+      <c r="C41" s="10"/>
+      <c r="D41" s="10"/>
+      <c r="E41" s="10"/>
+      <c r="F41" s="10"/>
+      <c r="G41" s="10"/>
+      <c r="H41" s="10"/>
+      <c r="I41" s="10"/>
+      <c r="J41" s="10"/>
+      <c r="K41" s="10"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="10"/>
+      <c r="N41" s="10"/>
     </row>
     <row r="42" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A42" s="19"/>
-      <c r="B42" s="19"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19"/>
-      <c r="E42" s="19"/>
-      <c r="F42" s="19"/>
-      <c r="G42" s="19"/>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="19"/>
-      <c r="K42" s="19"/>
-      <c r="L42" s="19"/>
-      <c r="M42" s="19"/>
-      <c r="N42" s="19"/>
+      <c r="A42" s="10"/>
+      <c r="B42" s="10"/>
+      <c r="C42" s="10"/>
+      <c r="D42" s="10"/>
+      <c r="E42" s="10"/>
+      <c r="F42" s="10"/>
+      <c r="G42" s="10"/>
+      <c r="H42" s="10"/>
+      <c r="I42" s="10"/>
+      <c r="J42" s="10"/>
+      <c r="K42" s="10"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="10"/>
+      <c r="N42" s="10"/>
     </row>
     <row r="43" spans="1:14" ht="15.75" customHeight="1" x14ac:dyDescent="0.4">
-      <c r="A43" s="19"/>
-      <c r="B43" s="19"/>
-      <c r="C43" s="19"/>
-      <c r="D43" s="19"/>
-      <c r="E43" s="19"/>
-      <c r="F43" s="19"/>
-      <c r="G43" s="19"/>
-      <c r="H43" s="19"/>
-      <c r="I43" s="19"/>
-      <c r="J43" s="19"/>
-      <c r="K43" s="19"/>
-      <c r="L43" s="19"/>
-      <c r="M43" s="19"/>
-      <c r="N43" s="19"/>
+      <c r="A43" s="10"/>
+      <c r="B43" s="10"/>
+      <c r="C43" s="10"/>
+      <c r="D43" s="10"/>
+      <c r="E43" s="10"/>
+      <c r="F43" s="10"/>
+      <c r="G43" s="10"/>
+      <c r="H43" s="10"/>
+      <c r="I43" s="10"/>
+      <c r="J43" s="10"/>
+      <c r="K43" s="10"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="10"/>
+      <c r="N43" s="10"/>
     </row>
   </sheetData>
-  <mergeCells count="4">
+  <sheetProtection algorithmName="SHA-512" hashValue="OhpebjaF3Siw0NLN/E+8u/+lMjCq1/oD656ggXtyuBiqAr3z9vYyzwuBUwzsgmk2w60ISTe785+WOzQOLqjYOA==" saltValue="sqx6nH9Fjg4079AWyXVSSA==" spinCount="100000" sheet="1" formatCells="0" formatColumns="0" formatRows="0" insertColumns="0" insertRows="0" insertHyperlinks="0" deleteColumns="0" deleteRows="0" sort="0" autoFilter="0" pivotTables="0"/>
+  <mergeCells count="5">
     <mergeCell ref="E1:L1"/>
     <mergeCell ref="E2:L2"/>
     <mergeCell ref="E4:L4"/>
     <mergeCell ref="E3:L3"/>
+    <mergeCell ref="A4:B4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
